--- a/data/Thickness of Silicone Dog Bone Samples.xlsx
+++ b/data/Thickness of Silicone Dog Bone Samples.xlsx
@@ -229,7 +229,7 @@
     <t xml:space="preserve">Dragon-Soma-Sil</t>
   </si>
   <si>
-    <t xml:space="preserve">Ecoflex135 – Sample 1</t>
+    <t xml:space="preserve">Ecoflex135 - Sample 1</t>
   </si>
   <si>
     <t xml:space="preserve">Ecoflex136 - Sample 2</t>
@@ -352,10 +352,10 @@
   <dimension ref="A1:B84"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A81" activeCellId="0" sqref="A81"/>
+      <selection pane="topLeft" activeCell="A80" activeCellId="0" sqref="A80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.28"/>

--- a/data/Thickness of Silicone Dog Bone Samples.xlsx
+++ b/data/Thickness of Silicone Dog Bone Samples.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t xml:space="preserve">thickness (mm)</t>
   </si>
@@ -242,6 +242,147 @@
   </si>
   <si>
     <t xml:space="preserve">Ecoflex139 - Sample 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drag/Sil/Eco/Gel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex142 - Sample #1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex143 - Sample #2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex144 - Sample #3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex145 - Sample #4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex146 - Sample #5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sil/Gel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex147 - Sample #1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex148 - Sample #2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex149 - Sample #3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex150 - Sample #4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex151 - Sample #5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex152 - Sample #6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dra/Sil/Gel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex153 - Sample #1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex154 - Sample #2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex155 - Sample #3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex156 - Sample #4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex157 - Sample #5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex158 - Sample #6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eco/Dra/Soma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex159 - Sample #1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex160 - Sample #2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex161 - Sample #3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex162 - Sample #4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex163 - Sample #5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sil/Soma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex164 - Sample #1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex165 - Sample #2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex166 - Sample #3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex167 - Sample #4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex168 - Sample #5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex169 - Sample #6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dra/Soma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex170 - Sample #1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex171 - Sample #2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex172 - Sample #3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex173 - Sample #4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex174 - Sample #5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex175 - Sample #6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soma/Gel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex176 - Sample #1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex177 - Sample #2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex178 - Sample #3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex179 - Sample #4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex180 - Sample #5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex181 - Sample #6</t>
   </si>
 </sst>
 </file>
@@ -349,13 +490,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B84"/>
+  <dimension ref="A1:B138"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A80" activeCellId="0" sqref="A80"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B129" activeCellId="0" sqref="B129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.28"/>
@@ -916,6 +1057,367 @@
       </c>
       <c r="B84" s="1" t="n">
         <v>3.38</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B87" s="0" t="n">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B88" s="0" t="n">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B89" s="0" t="n">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B90" s="0" t="n">
+        <v>2.28</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B91" s="0" t="n">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B94" s="0" t="n">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B95" s="0" t="n">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B96" s="0" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B97" s="0" t="n">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B98" s="0" t="n">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B99" s="0" t="n">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B102" s="0" t="n">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B103" s="0" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B104" s="0" t="n">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B105" s="0" t="n">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B106" s="0" t="n">
+        <v>2.49</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B107" s="0" t="n">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B110" s="0" t="n">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B111" s="0" t="n">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B112" s="0" t="n">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B113" s="0" t="n">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B114" s="0" t="n">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B117" s="0" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B118" s="0" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B119" s="0" t="n">
+        <v>4.06</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B120" s="0" t="n">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B121" s="0" t="n">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B122" s="0" t="n">
+        <v>4.02</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B125" s="0" t="n">
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B126" s="0" t="n">
+        <v>4.86</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B127" s="0" t="n">
+        <v>4.81</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B128" s="0" t="n">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B129" s="0" t="n">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B130" s="0" t="n">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B133" s="0" t="n">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B134" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B135" s="0" t="n">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B136" s="0" t="n">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B137" s="0" t="n">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B138" s="0" t="n">
+        <v>2.91</v>
       </c>
     </row>
   </sheetData>

--- a/data/Thickness of Silicone Dog Bone Samples.xlsx
+++ b/data/Thickness of Silicone Dog Bone Samples.xlsx
@@ -244,7 +244,7 @@
     <t xml:space="preserve">Ecoflex139 - Sample 5</t>
   </si>
   <si>
-    <t xml:space="preserve">Drag/Sil/Eco/Gel</t>
+    <t xml:space="preserve">Dra-Sil-Eco-Gel</t>
   </si>
   <si>
     <t xml:space="preserve">Ecoflex142 - Sample #1</t>
@@ -262,7 +262,7 @@
     <t xml:space="preserve">Ecoflex146 - Sample #5</t>
   </si>
   <si>
-    <t xml:space="preserve">Sil/Gel</t>
+    <t xml:space="preserve">Sil-Gel</t>
   </si>
   <si>
     <t xml:space="preserve">Ecoflex147 - Sample #1</t>
@@ -283,7 +283,7 @@
     <t xml:space="preserve">Ecoflex152 - Sample #6</t>
   </si>
   <si>
-    <t xml:space="preserve">Dra/Sil/Gel</t>
+    <t xml:space="preserve">Dra-Sil-Gel</t>
   </si>
   <si>
     <t xml:space="preserve">Ecoflex153 - Sample #1</t>
@@ -304,7 +304,7 @@
     <t xml:space="preserve">Ecoflex158 - Sample #6</t>
   </si>
   <si>
-    <t xml:space="preserve">Eco/Dra/Soma</t>
+    <t xml:space="preserve">Eco-Dra-Soma</t>
   </si>
   <si>
     <t xml:space="preserve">Ecoflex159 - Sample #1</t>
@@ -322,7 +322,7 @@
     <t xml:space="preserve">Ecoflex163 - Sample #5</t>
   </si>
   <si>
-    <t xml:space="preserve">Sil/Soma</t>
+    <t xml:space="preserve">Sil-Soma</t>
   </si>
   <si>
     <t xml:space="preserve">Ecoflex164 - Sample #1</t>
@@ -343,7 +343,7 @@
     <t xml:space="preserve">Ecoflex169 - Sample #6</t>
   </si>
   <si>
-    <t xml:space="preserve">Dra/Soma</t>
+    <t xml:space="preserve">Dra-Soma</t>
   </si>
   <si>
     <t xml:space="preserve">Ecoflex170 - Sample #1</t>
@@ -364,7 +364,7 @@
     <t xml:space="preserve">Ecoflex175 - Sample #6</t>
   </si>
   <si>
-    <t xml:space="preserve">Soma/Gel</t>
+    <t xml:space="preserve">Soma-Gel</t>
   </si>
   <si>
     <t xml:space="preserve">Ecoflex176 - Sample #1</t>
@@ -492,8 +492,8 @@
   </sheetPr>
   <dimension ref="A1:B138"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B129" activeCellId="0" sqref="B129"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A90" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A139" activeCellId="0" sqref="A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data/Thickness of Silicone Dog Bone Samples.xlsx
+++ b/data/Thickness of Silicone Dog Bone Samples.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
   <si>
     <t xml:space="preserve">thickness (mm)</t>
   </si>
@@ -383,6 +383,168 @@
   </si>
   <si>
     <t xml:space="preserve">Ecoflex181 - Sample #6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dra-Eco-Gel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex182 - Sample #1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex183 - Sample #2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex184 - Sample #3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex185 - Sample #4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex186 - Sample #5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dra-Sil-Gel-Eco-Soma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex187 - Sample #1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex188 - Sample #2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex189 - Sample #3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex190 - Sample #4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex191 - Sample #5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sil-Gel-Eco-Soma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex192 - Sample #1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex193 - Sample #2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex194 - Sample #3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex195 - Sample #4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex196 - Sample #5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dra-Eco-Gel-Soma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex197 - Sample #1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex198 - Sample #2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex199 - Sample #3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex200 - Sample #4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex201 - Sample #5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eco-Gel-Soma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex202 - Sample #1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex203 - Sample #2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex204 - Sample #3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex205 - Sample #4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex206 - Sample #5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dra-Sil-Gel-Soma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex207 - Sample #1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex208 - Sample #2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex209 - Sample #3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex210 - Sample #4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex211 - Sample #5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sil-Eco-Soma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex212 - Sample #1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex213 - Sample #2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex214 - Sample #3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex215 - Sample #4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex216 - Sample #5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dra-Sil-Eco-Soma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex217 - Sample #1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex218 - Sample #2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex219 - Sample #3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex220 - Sample #4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex221 - Sample #5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sil-Gel-Soma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex222 - Sample #1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex223 - Sample #2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex224 - Sample #3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex225 - Sample #4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecoflex226 - Sample #5</t>
   </si>
 </sst>
 </file>
@@ -490,15 +652,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B138"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A90" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A139" activeCellId="0" sqref="A139"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A115" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A154" activeCellId="0" sqref="A154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.28"/>
   </cols>
   <sheetData>
@@ -1059,12 +1221,12 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
         <v>75</v>
       </c>
@@ -1072,7 +1234,7 @@
         <v>2.61</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
         <v>76</v>
       </c>
@@ -1080,7 +1242,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
         <v>77</v>
       </c>
@@ -1088,7 +1250,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
         <v>78</v>
       </c>
@@ -1096,7 +1258,7 @@
         <v>2.28</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
         <v>79</v>
       </c>
@@ -1104,13 +1266,12 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
         <v>81</v>
       </c>
@@ -1118,7 +1279,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
         <v>82</v>
       </c>
@@ -1126,7 +1287,7 @@
         <v>2.32</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
         <v>83</v>
       </c>
@@ -1134,7 +1295,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
         <v>84</v>
       </c>
@@ -1142,7 +1303,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
         <v>85</v>
       </c>
@@ -1150,7 +1311,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
         <v>86</v>
       </c>
@@ -1158,13 +1319,12 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
         <v>88</v>
       </c>
@@ -1172,7 +1332,7 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
         <v>89</v>
       </c>
@@ -1180,7 +1340,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
         <v>90</v>
       </c>
@@ -1188,7 +1348,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
         <v>91</v>
       </c>
@@ -1196,7 +1356,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
         <v>92</v>
       </c>
@@ -1204,7 +1364,7 @@
         <v>2.49</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
         <v>93</v>
       </c>
@@ -1212,13 +1372,12 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
         <v>95</v>
       </c>
@@ -1226,7 +1385,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
         <v>96</v>
       </c>
@@ -1234,7 +1393,7 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
         <v>97</v>
       </c>
@@ -1242,7 +1401,7 @@
         <v>3.77</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
         <v>98</v>
       </c>
@@ -1250,7 +1409,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
         <v>99</v>
       </c>
@@ -1258,13 +1417,12 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
         <v>101</v>
       </c>
@@ -1272,7 +1430,7 @@
         <v>4.15</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
         <v>102</v>
       </c>
@@ -1280,7 +1438,7 @@
         <v>4.1</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
         <v>103</v>
       </c>
@@ -1288,7 +1446,7 @@
         <v>4.06</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
         <v>104</v>
       </c>
@@ -1296,7 +1454,7 @@
         <v>3.83</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
         <v>105</v>
       </c>
@@ -1304,7 +1462,7 @@
         <v>3.93</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
         <v>106</v>
       </c>
@@ -1312,13 +1470,12 @@
         <v>4.02</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
         <v>108</v>
       </c>
@@ -1326,7 +1483,7 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
         <v>109</v>
       </c>
@@ -1334,7 +1491,7 @@
         <v>4.86</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
         <v>110</v>
       </c>
@@ -1342,7 +1499,7 @@
         <v>4.81</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
         <v>111</v>
       </c>
@@ -1350,7 +1507,7 @@
         <v>4.55</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
         <v>112</v>
       </c>
@@ -1358,7 +1515,7 @@
         <v>4.41</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
         <v>113</v>
       </c>
@@ -1366,13 +1523,12 @@
         <v>4.21</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
         <v>115</v>
       </c>
@@ -1380,7 +1536,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
         <v>116</v>
       </c>
@@ -1388,7 +1544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
         <v>117</v>
       </c>
@@ -1396,7 +1552,7 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
         <v>118</v>
       </c>
@@ -1404,7 +1560,7 @@
         <v>3.17</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
         <v>119</v>
       </c>
@@ -1412,12 +1568,417 @@
         <v>3.11</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
         <v>120</v>
       </c>
       <c r="B138" s="0" t="n">
         <v>2.91</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B141" s="0" t="n">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B142" s="0" t="n">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B143" s="0" t="n">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B144" s="0" t="n">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B145" s="0" t="n">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B148" s="0" t="n">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B149" s="0" t="n">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B150" s="0" t="n">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B151" s="0" t="n">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B152" s="0" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B155" s="0" t="n">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B156" s="0" t="n">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B157" s="0" t="n">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B158" s="0" t="n">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B159" s="0" t="n">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B162" s="0" t="n">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B163" s="0" t="n">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B164" s="0" t="n">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B165" s="0" t="n">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B166" s="0" t="n">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B169" s="0" t="n">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B170" s="0" t="n">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B171" s="0" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B172" s="0" t="n">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B173" s="0" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B176" s="0" t="n">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B177" s="0" t="n">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B178" s="0" t="n">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B179" s="0" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B180" s="0" t="n">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B183" s="0" t="n">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B184" s="0" t="n">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B185" s="0" t="n">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B186" s="0" t="n">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B187" s="0" t="n">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B190" s="0" t="n">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B191" s="0" t="n">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B192" s="0" t="n">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B193" s="0" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B194" s="0" t="n">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B197" s="0" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B198" s="0" t="n">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B199" s="0" t="n">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B200" s="0" t="n">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B201" s="0" t="n">
+        <v>3.65</v>
       </c>
     </row>
   </sheetData>
@@ -1429,306 +1990,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100688E30B581BA344F820EA19C08E5CC21" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8a99756ee03f1bef1e1dd8ed8ec40f1f">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9e0d1ad1-55f4-48b3-8534-55d996625a8c" xmlns:ns4="f1ca3ac4-4fc2-4737-87b7-449641e259be" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1023584293df39faf7575f395c2dce46" ns3:_="" ns4:_="">
-    <xsd:import namespace="9e0d1ad1-55f4-48b3-8534-55d996625a8c"/>
-    <xsd:import namespace="f1ca3ac4-4fc2-4737-87b7-449641e259be"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns3:_activity" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9e0d1ad1-55f4-48b3-8534-55d996625a8c" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="21" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="_activity" ma:index="22" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f1ca3ac4-4fc2-4737-87b7-449641e259be" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="SharingHintHash" ma:index="19" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="9e0d1ad1-55f4-48b3-8534-55d996625a8c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC602467-F1DE-4DE2-B86C-D27D08B6DEFA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9e0d1ad1-55f4-48b3-8534-55d996625a8c"/>
-    <ds:schemaRef ds:uri="f1ca3ac4-4fc2-4737-87b7-449641e259be"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A456708B-6347-41AF-B0BB-7FDAADDBDFA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{946F9DBB-94A0-4CA7-ABD1-D29243341263}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="f1ca3ac4-4fc2-4737-87b7-449641e259be"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="9e0d1ad1-55f4-48b3-8534-55d996625a8c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>